--- a/PL 23MH01000253 Winterthur CH.xlsx
+++ b/PL 23MH01000253 Winterthur CH.xlsx
@@ -1,230 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Exa\Documents\GitHub\pdf-to-excel-Packing-list\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7155A03-6AC3-4577-BF5E-07608E4EE4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="1170" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="12735" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="rId1"/>
-    <sheet name="List2" sheetId="2" r:id="rId2"/>
-    <sheet name="List3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="List1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="List2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="List3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
-  <si>
-    <t>ORDER : 23MPMP0100000108</t>
-  </si>
-  <si>
-    <t>PACKING LIST - 23MH01000253</t>
-  </si>
-  <si>
-    <t>INVOICE: 230300337</t>
-  </si>
-  <si>
-    <t>Customer Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample delivery adress
-WMZ
-Haldenssse 69
-           Winterthur
-CH
-B. Hele
-+41 41 3545 842
-</t>
-  </si>
-  <si>
-    <t>Customer Address</t>
-  </si>
-  <si>
-    <t>Marks &amp; No.</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>QTY</t>
-  </si>
-  <si>
-    <t>Packing &amp; Meas´t</t>
-  </si>
-  <si>
-    <t>ZB0040133</t>
-  </si>
-  <si>
-    <t>Poloshirt Male S  HEINEKEN</t>
-  </si>
-  <si>
-    <t>pcs</t>
-  </si>
-  <si>
-    <t>1x  120x80x120 cm  150 kg/plt</t>
-  </si>
-  <si>
-    <t>Poloshirt Male M  HEINEKEN</t>
-  </si>
-  <si>
-    <t>5x  40x50x60 cm  12 kg/ctn</t>
-  </si>
-  <si>
-    <t>Poloshirt Male XXL  HEINEKEN</t>
-  </si>
-  <si>
-    <t>ZB0040134</t>
-  </si>
-  <si>
-    <t>DDP VAT Unpaid: Winterthur (according INCOTERMS 2010)</t>
-  </si>
-  <si>
-    <t>Totals</t>
-  </si>
-  <si>
-    <t>Total Gross Weight: 210,00 Kgs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity and Kind of Packages: </t>
-  </si>
-  <si>
-    <t>1 plt and 5 ctns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Gross Weight: </t>
-  </si>
-  <si>
-    <t>Kgs</t>
-  </si>
-  <si>
-    <t>Total cbm:</t>
-  </si>
-  <si>
-    <t>cbm</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>End Of Packing List</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="12">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <charset val="238"/>
+      <sz val="10"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="12"/>
       <name val="Arial"/>
+      <charset val="238"/>
       <family val="2"/>
-      <charset val="238"/>
+      <sz val="8"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color indexed="12"/>
       <sz val="10"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="238"/>
+      <u val="single"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
       <name val="Tahoma"/>
+      <charset val="238"/>
       <family val="2"/>
-      <charset val="238"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
       <name val="Tahoma"/>
+      <charset val="238"/>
       <family val="2"/>
-      <charset val="238"/>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
       <name val="Tahoma"/>
+      <charset val="238"/>
       <family val="2"/>
-      <charset val="238"/>
+      <b val="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="10"/>
       <name val="Tahoma"/>
+      <charset val="238"/>
       <family val="2"/>
-      <charset val="238"/>
+      <b val="1"/>
+      <sz val="16"/>
     </font>
     <font>
+      <name val="Tahoma"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color indexed="10"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
+      <name val="Tahoma"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="Arial"/>
+      <charset val="238"/>
       <family val="2"/>
-      <charset val="238"/>
+      <sz val="10"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="238"/>
+      <family val="2"/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,178 +430,311 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-      <protection locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="89">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1036,486 +1058,528 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col width="16.7109375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="42.140625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="7.28515625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col width="4.5703125" customWidth="1" style="1" min="4" max="4"/>
+    <col width="31.85546875" customWidth="1" style="1" min="5" max="5"/>
+    <col width="9.140625" customWidth="1" style="1" min="6" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-    </row>
-    <row r="2" spans="1:5" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-    </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-    </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
-    </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="59"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="56"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="43"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-    </row>
-    <row r="17" spans="1:5" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="59"/>
-    </row>
-    <row r="18" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="30"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="12">
+    <row r="1" ht="23.25" customHeight="1">
+      <c r="A1" s="74" t="inlineStr">
+        <is>
+          <t>Company HEADER</t>
+        </is>
+      </c>
+      <c r="B1" s="75" t="n"/>
+      <c r="C1" s="75" t="n"/>
+      <c r="D1" s="75" t="n"/>
+      <c r="E1" s="76" t="n"/>
+    </row>
+    <row r="2" ht="69" customHeight="1" thickBot="1">
+      <c r="A2" s="77" t="inlineStr">
+        <is>
+          <t>Company adress, VAT etc.</t>
+        </is>
+      </c>
+      <c r="E2" s="78" t="n"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="A3" s="79" t="inlineStr">
+        <is>
+          <t>ORDER : 23MPMP0100000108</t>
+        </is>
+      </c>
+      <c r="B3" s="75" t="n"/>
+      <c r="C3" s="75" t="n"/>
+      <c r="D3" s="75" t="n"/>
+      <c r="E3" s="76" t="n"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" s="80" t="n"/>
+      <c r="E4" s="78" t="n"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" s="81" t="inlineStr">
+        <is>
+          <t>PACKING LIST - 23MH01000253</t>
+        </is>
+      </c>
+      <c r="E5" s="78" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="80" t="n"/>
+      <c r="E6" s="78" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="82" t="inlineStr">
+        <is>
+          <t>INVOICE: 230300337</t>
+        </is>
+      </c>
+      <c r="E7" s="78" t="n"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A8" s="83" t="n"/>
+      <c r="B8" s="84" t="n"/>
+      <c r="C8" s="84" t="n"/>
+      <c r="D8" s="84" t="n"/>
+      <c r="E8" s="85" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="43" t="inlineStr">
+        <is>
+          <t>Customer Name</t>
+        </is>
+      </c>
+      <c r="B9" s="86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sample delivery adress
+WMZ
+Haldenssse 69
+           Winterthur
+CH
+B. Hele
++41 41 3545 842
+</t>
+        </is>
+      </c>
+      <c r="E9" s="78" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="43" t="inlineStr">
+        <is>
+          <t>Customer Address</t>
+        </is>
+      </c>
+      <c r="E10" s="78" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="43" t="n"/>
+      <c r="E11" s="78" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="43" t="n"/>
+      <c r="E12" s="78" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="43" t="n"/>
+      <c r="E13" s="78" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="43" t="n"/>
+      <c r="E14" s="78" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="43" t="n"/>
+      <c r="E15" s="78" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="43" t="n"/>
+      <c r="E16" s="78" t="n"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A17" s="44" t="n"/>
+      <c r="B17" s="84" t="n"/>
+      <c r="C17" s="84" t="n"/>
+      <c r="D17" s="84" t="n"/>
+      <c r="E17" s="85" t="n"/>
+    </row>
+    <row r="18" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A18" s="42" t="inlineStr">
+        <is>
+          <t>Marks &amp; No.</t>
+        </is>
+      </c>
+      <c r="B18" s="26" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C18" s="26" t="inlineStr">
+        <is>
+          <t>QTY</t>
+        </is>
+      </c>
+      <c r="D18" s="87" t="n"/>
+      <c r="E18" s="28" t="inlineStr">
+        <is>
+          <t>Packing &amp; Meas´t</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="25" t="n"/>
+      <c r="B19" s="17" t="n"/>
+      <c r="C19" s="18" t="n"/>
+      <c r="D19" s="20" t="n"/>
+      <c r="E19" s="30" t="n"/>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" s="31" t="inlineStr">
+        <is>
+          <t>ZB0040133</t>
+        </is>
+      </c>
+      <c r="B20" s="11" t="inlineStr">
+        <is>
+          <t>Poloshirt Male S  HEINEKEN</t>
+        </is>
+      </c>
+      <c r="C20" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="12">
+      <c r="D20" s="14" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="E20" s="32" t="n"/>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" s="33" t="inlineStr">
+        <is>
+          <t>ZB0040133</t>
+        </is>
+      </c>
+      <c r="B21" s="11" t="inlineStr">
+        <is>
+          <t>Poloshirt Male M  HEINEKEN</t>
+        </is>
+      </c>
+      <c r="C21" s="12" t="n">
         <v>200</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="12">
+      <c r="D21" s="14" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="E21" s="32" t="n"/>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" s="33" t="inlineStr">
+        <is>
+          <t>ZB0040133</t>
+        </is>
+      </c>
+      <c r="B22" s="11" t="inlineStr">
+        <is>
+          <t>Poloshirt Male M  HEINEKEN</t>
+        </is>
+      </c>
+      <c r="C22" s="12" t="n">
         <v>200</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="32"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="12">
+      <c r="D22" s="14" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="E22" s="32" t="n"/>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" s="33" t="inlineStr">
+        <is>
+          <t>ZB0040133</t>
+        </is>
+      </c>
+      <c r="B23" s="11" t="inlineStr">
+        <is>
+          <t>Poloshirt Male XXL  HEINEKEN</t>
+        </is>
+      </c>
+      <c r="C23" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="32"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="12">
+      <c r="D23" s="14" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="E23" s="32" t="n"/>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" s="33" t="inlineStr">
+        <is>
+          <t>ZB0040133</t>
+        </is>
+      </c>
+      <c r="B24" s="11" t="inlineStr">
+        <is>
+          <t>Poloshirt Male M  HEINEKEN</t>
+        </is>
+      </c>
+      <c r="C24" s="12" t="n">
         <v>200</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="32"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="12">
+      <c r="D24" s="14" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="E24" s="32" t="n"/>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" s="33" t="inlineStr">
+        <is>
+          <t>ZB0040134</t>
+        </is>
+      </c>
+      <c r="B25" s="11" t="inlineStr">
+        <is>
+          <t>Poloshirt Male S  HEINEKEN</t>
+        </is>
+      </c>
+      <c r="C25" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="32"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="12">
+      <c r="D25" s="14" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="E25" s="32" t="n"/>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" s="33" t="inlineStr">
+        <is>
+          <t>ZB0040134</t>
+        </is>
+      </c>
+      <c r="B26" s="11" t="inlineStr">
+        <is>
+          <t>Poloshirt Male M  HEINEKEN</t>
+        </is>
+      </c>
+      <c r="C26" s="12" t="n">
         <v>200</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="32"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="12">
+      <c r="D26" s="14" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="E26" s="32" t="n"/>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" s="33" t="inlineStr">
+        <is>
+          <t>ZB0040134</t>
+        </is>
+      </c>
+      <c r="B27" s="11" t="inlineStr">
+        <is>
+          <t>Poloshirt Male M  HEINEKEN</t>
+        </is>
+      </c>
+      <c r="C27" s="12" t="n">
         <v>200</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="32"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="12">
+      <c r="D27" s="14" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="E27" s="32" t="n"/>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" s="33" t="inlineStr">
+        <is>
+          <t>ZB0040134</t>
+        </is>
+      </c>
+      <c r="B28" s="11" t="inlineStr">
+        <is>
+          <t>Poloshirt Male M  HEINEKEN</t>
+        </is>
+      </c>
+      <c r="C28" s="12" t="n">
         <v>200</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="32"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="32"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="32"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="34"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="34"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="34"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="35"/>
-    </row>
-    <row r="35" spans="1:5" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="36"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="29"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="54"/>
-      <c r="B37" s="56"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="54"/>
-      <c r="B38" s="56"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
-      <c r="B39" s="56"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="19"/>
-    </row>
-    <row r="41" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="38"/>
+      <c r="D28" s="14" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="E28" s="32" t="n"/>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" s="33" t="n"/>
+      <c r="B29" s="11" t="n"/>
+      <c r="C29" s="12" t="n"/>
+      <c r="D29" s="14" t="n"/>
+      <c r="E29" s="32" t="n"/>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" s="33" t="n"/>
+      <c r="B30" s="11" t="n"/>
+      <c r="C30" s="13" t="n"/>
+      <c r="D30" s="14" t="n"/>
+      <c r="E30" s="32" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="33" t="n"/>
+      <c r="B31" s="11" t="n"/>
+      <c r="C31" s="13" t="n"/>
+      <c r="D31" s="14" t="n"/>
+      <c r="E31" s="34" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="33" t="n"/>
+      <c r="B32" s="11" t="n"/>
+      <c r="C32" s="12" t="n"/>
+      <c r="D32" s="14" t="n"/>
+      <c r="E32" s="34" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="33" t="n"/>
+      <c r="B33" s="11" t="n"/>
+      <c r="C33" s="12" t="n"/>
+      <c r="D33" s="14" t="n"/>
+      <c r="E33" s="34" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="33" t="n"/>
+      <c r="B34" s="11" t="n"/>
+      <c r="C34" s="12" t="n"/>
+      <c r="D34" s="14" t="n"/>
+      <c r="E34" s="35" t="n"/>
+    </row>
+    <row r="35" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A35" s="21" t="n"/>
+      <c r="B35" s="22" t="n"/>
+      <c r="C35" s="2" t="n"/>
+      <c r="D35" s="23" t="n"/>
+      <c r="E35" s="36" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="88" t="inlineStr">
+        <is>
+          <t>DDP VAT Unpaid: Winterthur (according INCOTERMS 2010)</t>
+        </is>
+      </c>
+      <c r="B36" s="78" t="n"/>
+      <c r="C36" s="24" t="n"/>
+      <c r="D36" s="27" t="n"/>
+      <c r="E36" s="29" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="80" t="n"/>
+      <c r="B37" s="78" t="n"/>
+      <c r="D37" s="15" t="n"/>
+      <c r="E37" s="9" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="80" t="n"/>
+      <c r="B38" s="78" t="n"/>
+      <c r="D38" s="15" t="n"/>
+      <c r="E38" s="9" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="80" t="n"/>
+      <c r="B39" s="78" t="n"/>
+      <c r="D39" s="15" t="n"/>
+      <c r="E39" s="9" t="n"/>
+    </row>
+    <row r="40" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A40" s="83" t="n"/>
+      <c r="B40" s="85" t="n"/>
+      <c r="C40" s="7" t="n"/>
+      <c r="D40" s="16" t="n"/>
+      <c r="E40" s="19" t="n"/>
+    </row>
+    <row r="41" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A41" s="37" t="inlineStr">
+        <is>
+          <t>Totals</t>
+        </is>
+      </c>
+      <c r="B41" s="38" t="n"/>
       <c r="C41" s="39">
         <f>SUM(C19:C35)</f>
-        <v>1450</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="45">
-        <v>210</v>
-      </c>
-      <c r="D46" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47">
-        <v>1.752</v>
-      </c>
-      <c r="D47" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:5" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="6" t="s">
-        <v>28</v>
+        <v/>
+      </c>
+      <c r="D41" s="40" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="E41" s="41" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="8" t="n"/>
+      <c r="B42" s="8" t="n"/>
+      <c r="C42" s="8" t="n"/>
+      <c r="D42" s="8" t="n"/>
+      <c r="E42" s="8" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="8" t="n"/>
+      <c r="B43" s="8" t="n"/>
+      <c r="C43" s="8" t="n"/>
+      <c r="D43" s="8" t="n"/>
+      <c r="E43" s="8" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="n"/>
+      <c r="B44" s="8" t="n"/>
+      <c r="C44" s="8" t="n"/>
+      <c r="D44" s="8" t="n"/>
+      <c r="E44" s="8" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="8" t="n"/>
+      <c r="B45" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quantity and Kind of Packages: </t>
+        </is>
+      </c>
+      <c r="E45" s="8" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="n"/>
+      <c r="B46" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Total Gross Weight: </t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="n"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="13.5" customHeight="1" thickBot="1"/>
+    <row r="49" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="n"/>
+      <c r="C49" s="4" t="n"/>
+      <c r="D49" s="4" t="n"/>
+      <c r="E49" s="5" t="n"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="72" t="inlineStr">
+        <is>
+          <t>End Of Packing List</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1529,31 +1593,43 @@
     <mergeCell ref="A7:E8"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
-  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.787401575" right="0.787401575" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="85" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <sheetData/>
-  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <pageMargins left="0.787401575" right="0.787401575" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <sheetData/>
-  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <pageMargins left="0.787401575" right="0.787401575" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
 </worksheet>
 </file>